--- a/Video tutorials/CSS.xlsx
+++ b/Video tutorials/CSS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D507B6-650F-41DC-9551-EE95A9872A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A7561B-9D8C-4257-9C01-516EC91060F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>introduction and inline css</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1wd5DXyLhdcnuwU6YQM1wKJp_LOYcw1ii/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>css maths functions part1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1whT_3lgoF4_o_aCFNDn-wI4gFtSEKR8r/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>css maths functions part2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rl6UulsflkMEI7jelzhjaa-5QZik36j0/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -631,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,6 +1000,22 @@
       </c>
       <c r="B47" s="5" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1033,6 +1061,8 @@
     <hyperlink ref="B45" r:id="rId39" xr:uid="{6B466DF6-E99B-484F-BA90-F7E488C411B9}"/>
     <hyperlink ref="B46" r:id="rId40" xr:uid="{94565B80-57D3-4D16-80C7-D3BE36939996}"/>
     <hyperlink ref="B47" r:id="rId41" xr:uid="{D8E19F69-B2B8-4983-B3C0-0807AF305FF7}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{DF5374E2-4B05-49E2-9300-7B8FD0C260C5}"/>
+    <hyperlink ref="B49" r:id="rId43" xr:uid="{AD2384FA-50F7-45CF-B453-D092097EED00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
